--- a/base.xlsx
+++ b/base.xlsx
@@ -9,39 +9,56 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stickers" sheetId="1" r:id="rId1"/>
+    <sheet name="users" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Ключевая фраза</t>
   </si>
   <si>
+    <t>file.id</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
     <t>Привет</t>
   </si>
   <si>
+    <t>CAACAgIAAxkBAAPwYgOYLTqiqDRaosBXwhdlM-YCNGgAAkQSAAKat6FL-O5ub_QpkuUjBA</t>
+  </si>
+  <si>
     <t>Пока</t>
   </si>
   <si>
-    <t>file.id</t>
-  </si>
-  <si>
     <t>CAACAgIAAxkBAAIBBWIDoFuXpZ1fjuFcFjJ3Rnv_QhkpAALREgACq03JSwiCbNDIBAFQIwQ</t>
   </si>
   <si>
-    <t>CAACAgIAAxkBAAPwYgOYLTqiqDRaosBXwhdlM-YCNGgAAkQSAAKat6FL-O5ub_QpkuUjBA</t>
+    <t>До свидания</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Здравствуйте!</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>grade</t>
   </si>
 </sst>
 </file>
@@ -369,44 +386,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="84.140625" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" customWidth="1"/>
+    <col min="5" max="5" width="101.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/base.xlsx
+++ b/base.xlsx
@@ -1,89 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\Карамышев\TelegramBot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9645" activeTab="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9645" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="stickers" sheetId="1" r:id="rId1"/>
-    <sheet name="users" sheetId="2" r:id="rId2"/>
+    <sheet name="stickers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="users" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Ключевая фраза</t>
-  </si>
-  <si>
-    <t>file.id</t>
-  </si>
-  <si>
-    <t>Answer</t>
-  </si>
-  <si>
-    <t>Привет</t>
-  </si>
-  <si>
-    <t>CAACAgIAAxkBAAPwYgOYLTqiqDRaosBXwhdlM-YCNGgAAkQSAAKat6FL-O5ub_QpkuUjBA</t>
-  </si>
-  <si>
-    <t>Пока</t>
-  </si>
-  <si>
-    <t>CAACAgIAAxkBAAIBBWIDoFuXpZ1fjuFcFjJ3Rnv_QhkpAALREgACq03JSwiCbNDIBAFQIwQ</t>
-  </si>
-  <si>
-    <t>До свидания</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Здравствуйте!</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF6A8759"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <color rgb="FF6A8759"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -102,24 +54,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,93 +396,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="84.140625" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
+    <col width="24.42578125" customWidth="1" min="1" max="1"/>
+    <col width="84.140625" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Ключевая фраза</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>file.id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Answer</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Привет</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>CAACAgIAAxkBAAPwYgOYLTqiqDRaosBXwhdlM-YCNGgAAkQSAAKat6FL-O5ub_QpkuUjBA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Здравствуйте!</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Пока</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>CAACAgIAAxkBAAIBBWIDoFuXpZ1fjuFcFjJ3Rnv_QhkpAALREgACq03JSwiCbNDIBAFQIwQ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>До свидания</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" customWidth="1"/>
-    <col min="5" max="5" width="101.5703125" customWidth="1"/>
+    <col width="13.5703125" customWidth="1" min="1" max="1"/>
+    <col width="19.28515625" customWidth="1" min="2" max="2"/>
+    <col width="4" customWidth="1" min="3" max="3"/>
+    <col width="5.5703125" customWidth="1" min="4" max="4"/>
+    <col width="101.5703125" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>grade</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>123</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1884965431</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Елисей</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Мужской</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10н</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/base.xlsx
+++ b/base.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9645" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9648" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="stickers" sheetId="1" state="visible" r:id="rId1"/>
@@ -407,10 +407,10 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="24.42578125" customWidth="1" min="1" max="1"/>
-    <col width="84.140625" customWidth="1" min="2" max="2"/>
+    <col width="24.44140625" customWidth="1" min="1" max="1"/>
+    <col width="84.109375" customWidth="1" min="2" max="2"/>
     <col width="26" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -477,19 +477,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="13.5703125" customWidth="1" min="1" max="1"/>
-    <col width="19.28515625" customWidth="1" min="2" max="2"/>
+    <col width="13.5546875" customWidth="1" min="1" max="1"/>
+    <col width="19.33203125" customWidth="1" min="2" max="2"/>
     <col width="4" customWidth="1" min="3" max="3"/>
-    <col width="5.5703125" customWidth="1" min="4" max="4"/>
-    <col width="101.5703125" customWidth="1" min="5" max="5"/>
+    <col width="5.5546875" customWidth="1" min="4" max="4"/>
+    <col width="101.5546875" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -516,24 +516,24 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
         <v>1884965431</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Елисей</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Мужской</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10н</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>10н</t>
         </is>

--- a/base.xlsx
+++ b/base.xlsx
@@ -1,41 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\Карамышев\TelegramBot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9648" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9648" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="stickers" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="users" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="stickers" sheetId="1" r:id="rId1"/>
+    <sheet name="users" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Ключевая фраза</t>
+  </si>
+  <si>
+    <t>file.id</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Привет</t>
+  </si>
+  <si>
+    <t>CAACAgIAAxkBAAPwYgOYLTqiqDRaosBXwhdlM-YCNGgAAkQSAAKat6FL-O5ub_QpkuUjBA</t>
+  </si>
+  <si>
+    <t>Здравствуйте!</t>
+  </si>
+  <si>
+    <t>Пока</t>
+  </si>
+  <si>
+    <t>CAACAgIAAxkBAAIBBWIDoFuXpZ1fjuFcFjJ3Rnv_QhkpAALREgACq03JSwiCbNDIBAFQIwQ</t>
+  </si>
+  <si>
+    <t>До свидания</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
-      <color rgb="FF6A8759"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,83 +102,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,147 +385,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col width="24.44140625" customWidth="1" min="1" max="1"/>
-    <col width="84.109375" customWidth="1" min="2" max="2"/>
-    <col width="26" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="84.109375" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Ключевая фраза</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>file.id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Answer</t>
-        </is>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Привет</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>CAACAgIAAxkBAAPwYgOYLTqiqDRaosBXwhdlM-YCNGgAAkQSAAKat6FL-O5ub_QpkuUjBA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Здравствуйте!</t>
-        </is>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Пока</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>CAACAgIAAxkBAAIBBWIDoFuXpZ1fjuFcFjJ3Rnv_QhkpAALREgACq03JSwiCbNDIBAFQIwQ</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>До свидания</t>
-        </is>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:D2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col width="13.5546875" customWidth="1" min="1" max="1"/>
-    <col width="19.33203125" customWidth="1" min="2" max="2"/>
-    <col width="4" customWidth="1" min="3" max="3"/>
-    <col width="5.5546875" customWidth="1" min="4" max="4"/>
-    <col width="101.5546875" customWidth="1" min="5" max="5"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>sex</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>grade</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1884965431</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Елисей</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Мужской</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10н</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10н</t>
-        </is>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/base.xlsx
+++ b/base.xlsx
@@ -1,89 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\Карамышев\TelegramBot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9648" activeTab="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9648" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="stickers" sheetId="1" r:id="rId1"/>
-    <sheet name="users" sheetId="2" r:id="rId2"/>
+    <sheet name="stickers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="users" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Ключевая фраза</t>
-  </si>
-  <si>
-    <t>file.id</t>
-  </si>
-  <si>
-    <t>Answer</t>
-  </si>
-  <si>
-    <t>Привет</t>
-  </si>
-  <si>
-    <t>CAACAgIAAxkBAAPwYgOYLTqiqDRaosBXwhdlM-YCNGgAAkQSAAKat6FL-O5ub_QpkuUjBA</t>
-  </si>
-  <si>
-    <t>Здравствуйте!</t>
-  </si>
-  <si>
-    <t>Пока</t>
-  </si>
-  <si>
-    <t>CAACAgIAAxkBAAIBBWIDoFuXpZ1fjuFcFjJ3Rnv_QhkpAALREgACq03JSwiCbNDIBAFQIwQ</t>
-  </si>
-  <si>
-    <t>До свидания</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF6A8759"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <color rgb="FF6A8759"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -102,24 +54,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,88 +396,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="2" width="84.109375" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
+    <col width="24.44140625" customWidth="1" min="1" max="1"/>
+    <col width="84.109375" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Ключевая фраза</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>file.id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Answer</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Привет</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>CAACAgIAAxkBAAPwYgOYLTqiqDRaosBXwhdlM-YCNGgAAkQSAAKat6FL-O5ub_QpkuUjBA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Здравствуйте!</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Пока</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>CAACAgIAAxkBAAIBBWIDoFuXpZ1fjuFcFjJ3Rnv_QhkpAALREgACq03JSwiCbNDIBAFQIwQ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>До свидания</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col width="13.5546875" customWidth="1" min="1" max="1"/>
+    <col width="19.33203125" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="5.5546875" customWidth="1" min="4" max="4"/>
+    <col width="9.77734375" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>grade</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1884965431</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Елисей</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Мужской</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10н</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/base.xlsx
+++ b/base.xlsx
@@ -1,41 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yel\Sites\telegram_bot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9648" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9648" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="stickers" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="users" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="stickers" sheetId="1" r:id="rId1"/>
+    <sheet name="users" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Ключевая фраза</t>
+  </si>
+  <si>
+    <t>file.id</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Привет</t>
+  </si>
+  <si>
+    <t>CAACAgIAAxkBAAPwYgOYLTqiqDRaosBXwhdlM-YCNGgAAkQSAAKat6FL-O5ub_QpkuUjBA</t>
+  </si>
+  <si>
+    <t>Здравствуйте!</t>
+  </si>
+  <si>
+    <t>Пока</t>
+  </si>
+  <si>
+    <t>CAACAgIAAxkBAAIBBWIDoFuXpZ1fjuFcFjJ3Rnv_QhkpAALREgACq03JSwiCbNDIBAFQIwQ</t>
+  </si>
+  <si>
+    <t>До свидания</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
-      <color rgb="FF6A8759"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,83 +102,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,142 +385,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="24.44140625" customWidth="1" min="1" max="1"/>
-    <col width="84.109375" customWidth="1" min="2" max="2"/>
-    <col width="26" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="84.109375" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Ключевая фраза</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>file.id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Answer</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Привет</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>CAACAgIAAxkBAAPwYgOYLTqiqDRaosBXwhdlM-YCNGgAAkQSAAKat6FL-O5ub_QpkuUjBA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Здравствуйте!</t>
-        </is>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Пока</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>CAACAgIAAxkBAAIBBWIDoFuXpZ1fjuFcFjJ3Rnv_QhkpAALREgACq03JSwiCbNDIBAFQIwQ</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>До свидания</t>
-        </is>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D6" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="13.5546875" customWidth="1" min="1" max="1"/>
-    <col width="19.33203125" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="5.5546875" customWidth="1" min="4" max="4"/>
-    <col width="9.77734375" customWidth="1" min="5" max="5"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" customWidth="1"/>
+    <col min="5" max="5" width="101.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>sex</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>grade</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1884965431</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Елисей</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Мужской</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10н</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/base.xlsx
+++ b/base.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9648"/>
   </bookViews>
   <sheets>
     <sheet name="stickers" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Ключевая фраза</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Answer</t>
   </si>
   <si>
+    <t>file_unique_id</t>
+  </si>
+  <si>
     <t>Привет</t>
   </si>
   <si>
@@ -40,15 +43,33 @@
     <t>Здравствуйте!</t>
   </si>
   <si>
+    <t>AgADRBIAApq3oUs</t>
+  </si>
+  <si>
     <t>Пока</t>
   </si>
   <si>
-    <t>CAACAgIAAxkBAAIBBWIDoFuXpZ1fjuFcFjJ3Rnv_QhkpAALREgACq03JSwiCbNDIBAFQIwQ</t>
-  </si>
-  <si>
     <t>До свидания</t>
   </si>
   <si>
+    <t>qwerty</t>
+  </si>
+  <si>
+    <t>AAMCAgADGQEAAgXPYoAKPe0dQRLrRA0agjTqP1FOTOMAAlsVAAKfiZlLLRtwZ3WcWaoBAAdtAAMkBA</t>
+  </si>
+  <si>
+    <t>sdfsd</t>
+  </si>
+  <si>
+    <t>AgADWxUAAp-JmUs</t>
+  </si>
+  <si>
+    <t>AAMCAgADGQEAAgXaYoAKnSWY-PUQsP6Y6U4H4Dit2I4AAtESAAKrTclLCIJs0MgEAVABAAdtAAMkBA</t>
+  </si>
+  <si>
+    <t>AgAD0RIAAqtNyUs</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -59,6 +80,15 @@
   </si>
   <si>
     <t>grade</t>
+  </si>
+  <si>
+    <t>Yelisey</t>
+  </si>
+  <si>
+    <t>Мужской</t>
+  </si>
+  <si>
+    <t>5н</t>
   </si>
 </sst>
 </file>
@@ -386,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -397,9 +427,10 @@
     <col min="1" max="1" width="24.44140625" customWidth="1"/>
     <col min="2" max="2" width="84.109375" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,27 +440,50 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -440,9 +494,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
@@ -457,16 +511,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1884965431</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/base.xlsx
+++ b/base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Ключевая фраза</t>
   </si>
@@ -49,22 +49,10 @@
     <t>Пока</t>
   </si>
   <si>
+    <t>CAACAgIAAxkBAAIF-WKADbAFd-f0SKEU1QHck5zTqwmRAALREgACq03JSwiCbNDIBAFQJAQ</t>
+  </si>
+  <si>
     <t>До свидания</t>
-  </si>
-  <si>
-    <t>qwerty</t>
-  </si>
-  <si>
-    <t>AAMCAgADGQEAAgXPYoAKPe0dQRLrRA0agjTqP1FOTOMAAlsVAAKfiZlLLRtwZ3WcWaoBAAdtAAMkBA</t>
-  </si>
-  <si>
-    <t>sdfsd</t>
-  </si>
-  <si>
-    <t>AgADWxUAAp-JmUs</t>
-  </si>
-  <si>
-    <t>AAMCAgADGQEAAgXaYoAKnSWY-PUQsP6Y6U4H4Dit2I4AAtESAAKrTclLCIJs0MgEAVABAAdtAAMkBA</t>
   </si>
   <si>
     <t>AgAD0RIAAqtNyUs</t>
@@ -416,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,27 +451,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -511,16 +485,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -528,13 +502,13 @@
         <v>1884965431</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/base.xlsx
+++ b/base.xlsx
@@ -1,107 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yel\Sites\telegram_bot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9648"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9648" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="stickers" sheetId="1" r:id="rId1"/>
-    <sheet name="users" sheetId="2" r:id="rId2"/>
+    <sheet name="stickers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="users" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Ключевая фраза</t>
-  </si>
-  <si>
-    <t>file.id</t>
-  </si>
-  <si>
-    <t>Answer</t>
-  </si>
-  <si>
-    <t>file_unique_id</t>
-  </si>
-  <si>
-    <t>Привет</t>
-  </si>
-  <si>
-    <t>CAACAgIAAxkBAAPwYgOYLTqiqDRaosBXwhdlM-YCNGgAAkQSAAKat6FL-O5ub_QpkuUjBA</t>
-  </si>
-  <si>
-    <t>Здравствуйте!</t>
-  </si>
-  <si>
-    <t>AgADRBIAApq3oUs</t>
-  </si>
-  <si>
-    <t>Пока</t>
-  </si>
-  <si>
-    <t>CAACAgIAAxkBAAIF-WKADbAFd-f0SKEU1QHck5zTqwmRAALREgACq03JSwiCbNDIBAFQJAQ</t>
-  </si>
-  <si>
-    <t>До свидания</t>
-  </si>
-  <si>
-    <t>AgAD0RIAAqtNyUs</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-  <si>
-    <t>Yelisey</t>
-  </si>
-  <si>
-    <t>Мужской</t>
-  </si>
-  <si>
-    <t>5н</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF6A8759"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <color rgb="FF6A8759"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -120,24 +54,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -403,112 +396,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="2" width="84.109375" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col width="24.44140625" customWidth="1" min="1" max="1"/>
+    <col width="84.109375" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
+    <col width="19.33203125" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Ключевая фраза</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>file.id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Answer</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>file_unique_id</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Привет</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>CAACAgIAAxkBAAPwYgOYLTqiqDRaosBXwhdlM-YCNGgAAkQSAAKat6FL-O5ub_QpkuUjBA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Здравствуйте!</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>AgADRBIAApq3oUs</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Пока</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CAACAgIAAxkBAAIF-WKADbAFd-f0SKEU1QHck5zTqwmRAALREgACq03JSwiCbNDIBAFQJAQ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>До свидания</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>AgAD0RIAAqtNyUs</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Как дела?</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CAACAgIAAxkBAAIGNGKAkx_7lq-rKHdQfPllz4fNdAABgwACOBQAAqxnoEuT3ZebH7HNbSQE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>AgADOBQAAqxnoEs</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="A2:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" customWidth="1"/>
-    <col min="5" max="5" width="101.5546875" customWidth="1"/>
+    <col width="13.5546875" customWidth="1" min="1" max="1"/>
+    <col width="19.33203125" customWidth="1" min="2" max="2"/>
+    <col width="4" customWidth="1" min="3" max="3"/>
+    <col width="5.5546875" customWidth="1" min="4" max="4"/>
+    <col width="101.5546875" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>grade</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>1884965431</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Елисей</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Мужской</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10н</t>
+        </is>
       </c>
     </row>
   </sheetData>
